--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Eficiencia_energetica_ industrial_caldera.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Eficiencia_energetica_ industrial_caldera.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56344D7D-3AB5-4507-B8F4-87220CB2F284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5DA40-CA88-45C5-83D7-59F9936A08E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4B859084-2846-437A-9A39-CE5A20A8C627}"/>
   </bookViews>
@@ -57,19 +57,7 @@
     <t>Consumo Anual BAU</t>
   </si>
   <si>
-    <t>Producción anual BAU</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>Combustible Iniciativa</t>
-  </si>
-  <si>
-    <t>Consumo Anual Iniciativa</t>
-  </si>
-  <si>
-    <t>Producción anual iniciativa</t>
   </si>
   <si>
     <t>N°</t>
@@ -108,28 +96,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Unidad INI</t>
-  </si>
-  <si>
     <t>UNIDAD INI</t>
   </si>
   <si>
     <t>m3</t>
   </si>
   <si>
-    <t>Unidad funcional BAU (UF)</t>
-  </si>
-  <si>
     <t>Botellas de vidrio de 1000 ml</t>
-  </si>
-  <si>
-    <t>Unidad funcional INI (UF)</t>
-  </si>
-  <si>
-    <t>Año en que se compró equipo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
-    <t>Combustible que se consume antes de la iniciativa. Seleccione de la lista desplegable.</t>
   </si>
   <si>
     <t>Cantidad de combustible que se consumio durante un año de operaciones. Inserte su dato.</t>
@@ -141,22 +114,49 @@
     <t>Producto elaborado. Inserte su dato.</t>
   </si>
   <si>
-    <t>Combustible que se consume por la iniciativa. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Cantidad de combustible que se consumió durante un año de operaciones. Inserte su dato.</t>
-  </si>
-  <si>
-    <t>Unidad de consumo en iniciativa. Seleccione del desplegable.</t>
-  </si>
-  <si>
-    <t>Cantidad (unicades) de producto específico producido. Inserte su dato.</t>
   </si>
   <si>
     <t>Cantidad (Unidades) de producto especifico producido. Inserte su dato.</t>
   </si>
   <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
+  <si>
+    <t>Año de operación del equipo. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Unidad de consumo en la acción de mitigación. Seleccione del desplegable.</t>
+  </si>
+  <si>
+    <t>Cantidad (unidades) de producto específico producido. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Unidad Funcional BAU (UF)</t>
+  </si>
+  <si>
+    <t>Producción Anual BAU</t>
+  </si>
+  <si>
+    <t>Combustible Acción</t>
+  </si>
+  <si>
+    <t>Consumo Anual Acción</t>
+  </si>
+  <si>
+    <t>Producción Anual Acción</t>
+  </si>
+  <si>
+    <t>Combustible que se consume por la acción. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Combustible que se consume antes de la acción. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Unidad Acción</t>
+  </si>
+  <si>
+    <t>Unidad Funcional Acción (UF)</t>
   </si>
 </sst>
 </file>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5384E514-0062-448A-860E-7E246DA1D60F}">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,8 @@
     <col min="10" max="10" width="23.7109375" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="28" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="28" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" customWidth="1"/>
     <col min="15" max="15" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,42 +865,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="28" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -918,41 +919,41 @@
     </row>
     <row r="3" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -964,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="16">
         <v>54032</v>
@@ -974,10 +975,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="19">
         <v>55000000</v>
@@ -987,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K4" s="16">
         <v>208054</v>
@@ -997,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O4" s="19">
         <v>57050000</v>
@@ -9954,7 +9955,7 @@
       <c r="N319" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x4zru0lwdGEL+371LWWVdb4mqrl5oIq/Th2voDXV8t4LztrXX48dNvPq7spDBRsKb1PxXA/GS8s+4ClSyVfPRQ==" saltValue="Z3B5FxNpGYuvYqYab24NCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Oogegp7e7tlQBO74TpYhL8uOLtZTzNyKYmVOBnJDPdcywptTJta7YuolfHrLuX3QlMgfbKQaJUwYS5KLeedoRw==" saltValue="CeWM1xpOzCt4jvTPZTayBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:O2"/>
   </mergeCells>
@@ -10036,25 +10037,25 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10062,25 +10063,25 @@
         <v>2013</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -10091,13 +10092,13 @@
         <v>2014</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
         <v>2</v>
@@ -10110,7 +10111,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
@@ -10123,7 +10124,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2">
         <v>4</v>
@@ -10136,7 +10137,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>5</v>
@@ -10149,7 +10150,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2">
         <v>6</v>
